--- a/biology/Zoologie/Isturgia/Isturgia.xlsx
+++ b/biology/Zoologie/Isturgia/Isturgia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isturgia est un genre de Lépidoptères de la famille des Geometridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Isturgia est décrit en 1823 par l'entomologiste bavarois Jacob Hübner, pour l'espèce type Isturgia conspicuaria[1].
-Isturgia a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Isturgia est décrit en 1823 par l'entomologiste bavarois Jacob Hübner, pour l'espèce type Isturgia conspicuaria.
+Isturgia a pour synonymes :
 Bichroma Gumppenberg, 1887
 Dichroma Gumppenberg, 1887
 Enconista Lederer, 1853
@@ -547,14 +561,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Isturgia limbaria.
 			Isturgia arenacearia.
 			Isturgia famula.
 			Isturgia miniosaria.
-Selon GBIF       (27 juin 2022)[2] :
+Selon GBIF       (27 juin 2022) :
 Isturgia albogrisea Krüger, 2001
 Isturgia arenacearia (Denis &amp; Schiffermüller, 1775)
 Isturgia arizela (Fletcher D.S., 1978)
